--- a/modelo_EGD.xlsx
+++ b/modelo_EGD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcabrera\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3EE582-6366-4A34-B0A6-943760B81C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4E3EE582-6366-4A34-B0A6-943760B81C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D8F664F-1ED6-4782-8F80-E3356C3BA4BC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AAD093B-307B-4892-8C5D-B6E6712043FF}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,11 +64,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -125,6 +124,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A2D0EA-AF60-4805-AA42-A60F7E55FA8A}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -990,7 +990,7 @@
       <c r="H19" s="3">
         <v>1027</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="8"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
       <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="8"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>2020</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:B23" si="1">B21*(1-0.05)+C22</f>
+        <f t="shared" ref="B22" si="1">B21*(1-0.05)+C22</f>
         <v>581896.78842601704</v>
       </c>
       <c r="C22">
@@ -1330,18 +1330,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,18 +1364,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5D224F-1E1A-41F7-B005-F16F3215C3DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{092F7640-DA5E-4408-BCE1-924E8119685A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5D224F-1E1A-41F7-B005-F16F3215C3DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>